--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-results-platelets-mean-volume.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-results-platelets-mean-volume.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T14:56:25+01:00</t>
+    <t>2023-12-28T12:16:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1832,17 +1832,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.25" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.4140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="25.80859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="199.22265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="204.0546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1851,28 +1851,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.58984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.33984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-results-platelets-mean-volume.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-results-platelets-mean-volume.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4626" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4706" uniqueCount="661">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: Platelet Mean Volume</t>
+    <t>CH LAB-Report Observation Results: Platelet Mean Volume</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:40:37+00:00</t>
+    <t>2024-12-18T08:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -927,7 +927,7 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -970,7 +970,6 @@
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
     &lt;code value="18723-7"/&gt;
-    &lt;display value="Hematology studies (set)"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -991,7 +990,6 @@
   &lt;coding&gt;
     &lt;system value="http://snomed.info/sct"/&gt;
     &lt;code value="394916005"/&gt;
-    &lt;display value="Hematopathology"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1022,7 +1020,6 @@
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
     &lt;code value="32623-1"/&gt;
-    &lt;display value="Platelet mean volume [Entitic volume] in Blood by Automated count"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1414,6 +1411,16 @@
     <t>valueString</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueBoolean</t>
+  </si>
+  <si>
+    <t>valueBoolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
     <t>Observation.value[x]:valueRange</t>
   </si>
   <si>
@@ -1679,6 +1686,14 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;code value="702659008"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>http://hl7.eu/fhir/laboratory/ValueSet/lab-technique-eu-lab</t>
   </si>
   <si>
@@ -1702,6 +1717,11 @@
   </si>
   <si>
     <t>When the specimen is applicable and known it shall be documented</t>
+  </si>
+  <si>
+    <t>&lt;valueReference xmlns="http://hl7.org/fhir"&gt;
+  &lt;reference value="Specimen/BloodCBC"/&gt;
+&lt;/valueReference&gt;</t>
   </si>
   <si>
     <t>&lt; 123038009 |Specimen|</t>
@@ -2049,6 +2069,9 @@
   </si>
   <si>
     <t>Observation.component.value[x]:valueString</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]:valueBoolean</t>
   </si>
   <si>
     <t>Observation.component.value[x]:valueRange</t>
@@ -2409,7 +2432,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP120"/>
+  <dimension ref="A1:AP122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11118,19 +11141,19 @@
         <v>84</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>441</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>430</v>
@@ -11191,39 +11214,39 @@
         <v>95</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>157</v>
+        <v>432</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>445</v>
+        <v>107</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>84</v>
+        <v>433</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>84</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>425</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>84</v>
@@ -11245,16 +11268,16 @@
         <v>84</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>430</v>
@@ -11318,7 +11341,7 @@
         <v>157</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>84</v>
@@ -11327,10 +11350,10 @@
         <v>84</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>84</v>
@@ -11341,13 +11364,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>425</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>84</v>
@@ -11366,19 +11389,19 @@
         <v>84</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>430</v>
@@ -11439,28 +11462,28 @@
         <v>95</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>432</v>
+        <v>157</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>107</v>
+        <v>457</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>433</v>
+        <v>84</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>434</v>
+        <v>138</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>436</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76">
@@ -11738,19 +11761,19 @@
         <v>84</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>467</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>430</v>
@@ -11811,39 +11834,39 @@
         <v>95</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>157</v>
+        <v>432</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>471</v>
+        <v>107</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>84</v>
+        <v>433</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>84</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>425</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>84</v>
@@ -11862,19 +11885,19 @@
         <v>84</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>284</v>
+        <v>470</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>430</v>
@@ -11902,11 +11925,13 @@
         <v>84</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Y79" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="Z79" t="s" s="2">
-        <v>476</v>
+        <v>84</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>84</v>
@@ -11933,28 +11958,28 @@
         <v>95</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>432</v>
+        <v>157</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>107</v>
+        <v>474</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>433</v>
+        <v>84</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>435</v>
+        <v>476</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>436</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80">
@@ -11962,9 +11987,11 @@
         <v>477</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="D80" t="s" s="2">
         <v>84</v>
       </c>
@@ -11982,22 +12009,22 @@
         <v>84</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>284</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>480</v>
+        <v>429</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>481</v>
+        <v>430</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>84</v>
@@ -12022,13 +12049,11 @@
         <v>84</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>84</v>
@@ -12046,7 +12071,7 @@
         <v>84</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>477</v>
+        <v>425</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>82</v>
@@ -12055,7 +12080,7 @@
         <v>95</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>484</v>
+        <v>432</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>107</v>
@@ -12064,38 +12089,38 @@
         <v>84</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>84</v>
+        <v>433</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>138</v>
+        <v>434</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>485</v>
+        <v>435</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>84</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>487</v>
+        <v>84</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>84</v>
@@ -12110,16 +12135,16 @@
         <v>284</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>84</v>
@@ -12147,10 +12172,10 @@
         <v>345</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>84</v>
@@ -12168,16 +12193,16 @@
         <v>84</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>84</v>
+        <v>487</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>107</v>
@@ -12186,31 +12211,31 @@
         <v>84</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>494</v>
+        <v>84</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>495</v>
+        <v>138</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>497</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>84</v>
+        <v>490</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12229,19 +12254,19 @@
         <v>84</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>499</v>
+        <v>284</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>84</v>
@@ -12266,13 +12291,13 @@
         <v>84</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>84</v>
+        <v>345</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>84</v>
+        <v>495</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>84</v>
+        <v>496</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>84</v>
@@ -12290,7 +12315,7 @@
         <v>84</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
@@ -12308,27 +12333,27 @@
         <v>84</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>84</v>
+        <v>497</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>84</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12339,7 +12364,7 @@
         <v>82</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>84</v>
@@ -12351,18 +12376,20 @@
         <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>284</v>
+        <v>502</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>84</v>
       </c>
@@ -12386,13 +12413,13 @@
         <v>84</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>510</v>
+        <v>84</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>511</v>
+        <v>84</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>512</v>
+        <v>84</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>84</v>
@@ -12410,13 +12437,13 @@
         <v>84</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>84</v>
@@ -12428,27 +12455,27 @@
         <v>84</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>513</v>
+        <v>84</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>516</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12474,17 +12501,15 @@
         <v>284</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>84</v>
       </c>
@@ -12508,11 +12533,13 @@
         <v>84</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Y84" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="Z84" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>84</v>
@@ -12530,7 +12557,7 @@
         <v>84</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
@@ -12548,27 +12575,27 @@
         <v>84</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>84</v>
+        <v>516</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>84</v>
+        <v>519</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12591,18 +12618,20 @@
         <v>84</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>526</v>
+        <v>284</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>84</v>
       </c>
@@ -12611,7 +12640,7 @@
         <v>84</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>84</v>
+        <v>525</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>84</v>
@@ -12626,13 +12655,11 @@
         <v>84</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>84</v>
+        <v>526</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>84</v>
@@ -12650,7 +12677,7 @@
         <v>84</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>82</v>
@@ -12668,27 +12695,27 @@
         <v>84</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>530</v>
+        <v>84</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>533</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12711,16 +12738,16 @@
         <v>84</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12731,7 +12758,7 @@
         <v>84</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>84</v>
+        <v>534</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>84</v>
@@ -12770,7 +12797,7 @@
         <v>84</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>82</v>
@@ -12788,27 +12815,27 @@
         <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12819,7 +12846,7 @@
         <v>82</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>84</v>
@@ -12831,20 +12858,18 @@
         <v>84</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>548</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>84</v>
       </c>
@@ -12892,45 +12917,45 @@
         <v>84</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>549</v>
+        <v>107</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>84</v>
+        <v>544</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>84</v>
+        <v>547</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12941,7 +12966,7 @@
         <v>82</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>84</v>
@@ -12953,16 +12978,20 @@
         <v>84</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>160</v>
+        <v>549</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>161</v>
+        <v>550</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>84</v>
       </c>
@@ -13010,19 +13039,19 @@
         <v>84</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>163</v>
+        <v>548</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>84</v>
+        <v>554</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>84</v>
@@ -13031,10 +13060,10 @@
         <v>84</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>84</v>
+        <v>555</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>164</v>
+        <v>556</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>84</v>
@@ -13045,21 +13074,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>84</v>
@@ -13071,17 +13100,15 @@
         <v>84</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>84</v>
@@ -13130,19 +13157,19 @@
         <v>84</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>84</v>
@@ -13165,14 +13192,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>555</v>
+        <v>167</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13185,26 +13212,24 @@
         <v>84</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>556</v>
+        <v>168</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>557</v>
+        <v>169</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="O90" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>84</v>
       </c>
@@ -13252,7 +13277,7 @@
         <v>84</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>558</v>
+        <v>172</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>82</v>
@@ -13276,7 +13301,7 @@
         <v>84</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>84</v>
@@ -13294,26 +13319,26 @@
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>84</v>
+        <v>560</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>560</v>
+        <v>140</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>561</v>
@@ -13321,8 +13346,12 @@
       <c r="M91" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+      <c r="N91" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>84</v>
       </c>
@@ -13370,19 +13399,19 @@
         <v>84</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>563</v>
+        <v>84</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>84</v>
@@ -13391,10 +13420,10 @@
         <v>84</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>564</v>
+        <v>84</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>565</v>
+        <v>138</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>84</v>
@@ -13405,10 +13434,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13431,13 +13460,13 @@
         <v>84</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13488,7 +13517,7 @@
         <v>84</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>82</v>
@@ -13497,7 +13526,7 @@
         <v>95</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>107</v>
@@ -13509,10 +13538,10 @@
         <v>84</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>84</v>
@@ -13523,10 +13552,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13549,20 +13578,16 @@
         <v>84</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>284</v>
+        <v>565</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N93" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="O93" t="s" s="2">
-        <v>574</v>
-      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>84</v>
       </c>
@@ -13586,13 +13611,13 @@
         <v>84</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>575</v>
+        <v>84</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>576</v>
+        <v>84</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>84</v>
@@ -13610,7 +13635,7 @@
         <v>84</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>82</v>
@@ -13619,7 +13644,7 @@
         <v>95</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>84</v>
+        <v>568</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>107</v>
@@ -13628,13 +13653,13 @@
         <v>84</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>577</v>
+        <v>84</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>496</v>
+        <v>574</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>84</v>
@@ -13645,10 +13670,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13659,7 +13684,7 @@
         <v>82</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>84</v>
@@ -13674,16 +13699,16 @@
         <v>284</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>84</v>
@@ -13708,13 +13733,13 @@
         <v>84</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>510</v>
+        <v>119</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>84</v>
@@ -13732,13 +13757,13 @@
         <v>84</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>84</v>
@@ -13750,13 +13775,13 @@
         <v>84</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>84</v>
@@ -13767,10 +13792,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13781,7 +13806,7 @@
         <v>82</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>84</v>
@@ -13793,17 +13818,19 @@
         <v>84</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>84</v>
@@ -13828,13 +13855,13 @@
         <v>84</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>84</v>
+        <v>513</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>84</v>
+        <v>589</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>84</v>
+        <v>590</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>84</v>
@@ -13852,13 +13879,13 @@
         <v>84</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>84</v>
@@ -13870,13 +13897,13 @@
         <v>84</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>84</v>
+        <v>582</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>84</v>
+        <v>583</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>591</v>
+        <v>499</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>84</v>
@@ -13887,10 +13914,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13913,7 +13940,7 @@
         <v>84</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>160</v>
+        <v>592</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>593</v>
@@ -13922,7 +13949,9 @@
         <v>594</v>
       </c>
       <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>84</v>
       </c>
@@ -13970,7 +13999,7 @@
         <v>84</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>82</v>
@@ -13991,10 +14020,10 @@
         <v>84</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>564</v>
+        <v>84</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>84</v>
@@ -14005,10 +14034,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14019,7 +14048,7 @@
         <v>82</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>84</v>
@@ -14028,10 +14057,10 @@
         <v>84</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>597</v>
+        <v>160</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>598</v>
@@ -14039,9 +14068,7 @@
       <c r="M97" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="N97" t="s" s="2">
-        <v>600</v>
-      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>84</v>
@@ -14090,13 +14117,13 @@
         <v>84</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>84</v>
@@ -14111,10 +14138,10 @@
         <v>84</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>84</v>
@@ -14125,10 +14152,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14139,7 +14166,7 @@
         <v>82</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>84</v>
@@ -14151,16 +14178,16 @@
         <v>96</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14210,7 +14237,7 @@
         <v>84</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>82</v>
@@ -14231,10 +14258,10 @@
         <v>84</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>84</v>
@@ -14245,10 +14272,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14271,7 +14298,7 @@
         <v>96</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>544</v>
+        <v>609</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>610</v>
@@ -14282,9 +14309,7 @@
       <c r="N99" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="O99" t="s" s="2">
-        <v>613</v>
-      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>84</v>
       </c>
@@ -14332,7 +14357,7 @@
         <v>84</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>82</v>
@@ -14353,10 +14378,10 @@
         <v>84</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>84</v>
@@ -14367,10 +14392,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14381,7 +14406,7 @@
         <v>82</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>84</v>
@@ -14390,19 +14415,23 @@
         <v>84</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>160</v>
+        <v>549</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>161</v>
+        <v>615</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>618</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>84</v>
       </c>
@@ -14450,19 +14479,19 @@
         <v>84</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>163</v>
+        <v>614</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>84</v>
@@ -14471,10 +14500,10 @@
         <v>84</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>84</v>
+        <v>619</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>164</v>
+        <v>620</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>84</v>
@@ -14485,10 +14514,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14499,7 +14528,7 @@
         <v>82</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>84</v>
@@ -14511,13 +14540,13 @@
         <v>84</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14556,29 +14585,31 @@
         <v>84</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AC101" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AD101" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>84</v>
@@ -14590,7 +14621,7 @@
         <v>84</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>84</v>
@@ -14601,14 +14632,12 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
         <v>84</v>
       </c>
@@ -14617,7 +14646,7 @@
         <v>82</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>84</v>
@@ -14629,13 +14658,13 @@
         <v>84</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14674,16 +14703,14 @@
         <v>84</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="AC102" s="2"/>
       <c r="AD102" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>172</v>
@@ -14695,7 +14722,7 @@
         <v>83</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>146</v>
@@ -14710,7 +14737,7 @@
         <v>84</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>84</v>
@@ -14721,12 +14748,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="D103" t="s" s="2">
         <v>84</v>
       </c>
@@ -14747,13 +14776,13 @@
         <v>84</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14804,19 +14833,19 @@
         <v>84</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>84</v>
@@ -14828,7 +14857,7 @@
         <v>84</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>84</v>
@@ -14839,10 +14868,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14853,7 +14882,7 @@
         <v>82</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>84</v>
@@ -14865,13 +14894,13 @@
         <v>84</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14910,31 +14939,31 @@
         <v>84</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>84</v>
@@ -14946,7 +14975,7 @@
         <v>84</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>84</v>
@@ -14957,10 +14986,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14968,10 +14997,10 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>84</v>
@@ -14983,24 +15012,22 @@
         <v>84</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q105" s="2"/>
       <c r="R105" t="s" s="2">
-        <v>235</v>
+        <v>84</v>
       </c>
       <c r="S105" t="s" s="2">
         <v>84</v>
@@ -15030,31 +15057,31 @@
         <v>84</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>84</v>
@@ -15066,7 +15093,7 @@
         <v>84</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>84</v>
@@ -15077,10 +15104,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15103,22 +15130,24 @@
         <v>84</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>84</v>
@@ -15160,10 +15189,10 @@
         <v>84</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>95</v>
@@ -15172,7 +15201,7 @@
         <v>84</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>84</v>
@@ -15195,46 +15224,42 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>555</v>
+        <v>84</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>556</v>
+        <v>191</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>84</v>
       </c>
@@ -15282,19 +15307,19 @@
         <v>84</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>558</v>
+        <v>193</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>84</v>
@@ -15317,45 +15342,45 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>84</v>
+        <v>560</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>284</v>
+        <v>140</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>629</v>
+        <v>561</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>630</v>
+        <v>562</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>631</v>
+        <v>170</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>84</v>
@@ -15380,13 +15405,13 @@
         <v>84</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>510</v>
+        <v>84</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>632</v>
+        <v>84</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>633</v>
+        <v>84</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>84</v>
@@ -15404,34 +15429,34 @@
         <v>84</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>628</v>
+        <v>563</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>634</v>
+        <v>84</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>319</v>
+        <v>84</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>320</v>
+        <v>138</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>321</v>
+        <v>84</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>84</v>
@@ -15439,10 +15464,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15450,7 +15475,7 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>95</v>
@@ -15465,19 +15490,19 @@
         <v>96</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>426</v>
+        <v>284</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="N109" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="M109" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>637</v>
-      </c>
       <c r="O109" t="s" s="2">
-        <v>430</v>
+        <v>314</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>84</v>
@@ -15502,32 +15527,34 @@
         <v>84</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>84</v>
+        <v>513</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>84</v>
+        <v>637</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>84</v>
+        <v>638</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AC109" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AD109" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>95</v>
@@ -15542,31 +15569,29 @@
         <v>84</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>434</v>
+        <v>319</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>435</v>
+        <v>320</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>84</v>
+        <v>321</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>436</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="C110" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
         <v>84</v>
       </c>
@@ -15587,16 +15612,16 @@
         <v>96</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>160</v>
+        <v>426</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>428</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>430</v>
@@ -15636,19 +15661,17 @@
         <v>84</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="AC110" s="2"/>
       <c r="AD110" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>82</v>
@@ -15666,7 +15689,7 @@
         <v>84</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>434</v>
@@ -15683,13 +15706,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B111" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="B111" t="s" s="2">
-        <v>635</v>
-      </c>
       <c r="C111" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>84</v>
@@ -15708,19 +15731,19 @@
         <v>84</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>441</v>
+        <v>160</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>442</v>
+        <v>641</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>444</v>
+        <v>642</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>430</v>
@@ -15772,7 +15795,7 @@
         <v>84</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>82</v>
@@ -15781,39 +15804,39 @@
         <v>95</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>445</v>
+        <v>107</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>84</v>
+        <v>643</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>84</v>
+        <v>436</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>84</v>
@@ -15832,19 +15855,19 @@
         <v>84</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>451</v>
+        <v>641</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>453</v>
+        <v>642</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>430</v>
@@ -15896,7 +15919,7 @@
         <v>84</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>82</v>
@@ -15905,39 +15928,39 @@
         <v>95</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>454</v>
+        <v>107</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>84</v>
+        <v>643</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>138</v>
+        <v>434</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>84</v>
+        <v>436</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>84</v>
@@ -15956,19 +15979,19 @@
         <v>84</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>636</v>
+        <v>445</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>637</v>
+        <v>447</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>430</v>
@@ -16020,7 +16043,7 @@
         <v>84</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>82</v>
@@ -16029,39 +16052,39 @@
         <v>95</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>107</v>
+        <v>448</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>638</v>
+        <v>84</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>436</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>84</v>
@@ -16080,19 +16103,19 @@
         <v>84</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>636</v>
+        <v>454</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>637</v>
+        <v>456</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>430</v>
@@ -16144,7 +16167,7 @@
         <v>84</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>82</v>
@@ -16153,39 +16176,39 @@
         <v>95</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>107</v>
+        <v>457</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>638</v>
+        <v>84</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>434</v>
+        <v>138</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>436</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>84</v>
@@ -16207,16 +16230,16 @@
         <v>96</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>428</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>430</v>
@@ -16268,7 +16291,7 @@
         <v>84</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>82</v>
@@ -16286,7 +16309,7 @@
         <v>84</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>434</v>
@@ -16303,13 +16326,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>84</v>
@@ -16328,19 +16351,19 @@
         <v>84</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>468</v>
+        <v>641</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>470</v>
+        <v>642</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>430</v>
@@ -16392,7 +16415,7 @@
         <v>84</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>82</v>
@@ -16401,39 +16424,39 @@
         <v>95</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>471</v>
+        <v>107</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>84</v>
+        <v>643</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>84</v>
+        <v>436</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>84</v>
@@ -16455,16 +16478,16 @@
         <v>96</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>284</v>
+        <v>467</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>428</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>430</v>
@@ -16492,11 +16515,13 @@
         <v>84</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Y117" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="Z117" t="s" s="2">
-        <v>476</v>
+        <v>84</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>84</v>
@@ -16514,7 +16539,7 @@
         <v>84</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>82</v>
@@ -16532,7 +16557,7 @@
         <v>84</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>434</v>
@@ -16549,12 +16574,14 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="C118" s="2"/>
+        <v>640</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="D118" t="s" s="2">
         <v>84</v>
       </c>
@@ -16575,19 +16602,19 @@
         <v>84</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>284</v>
+        <v>470</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>648</v>
+        <v>471</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>649</v>
+        <v>472</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>650</v>
+        <v>473</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>481</v>
+        <v>430</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>84</v>
@@ -16612,13 +16639,13 @@
         <v>84</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>345</v>
+        <v>84</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>482</v>
+        <v>84</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>483</v>
+        <v>84</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>84</v>
@@ -16636,7 +16663,7 @@
         <v>84</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>82</v>
@@ -16645,10 +16672,10 @@
         <v>95</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>484</v>
+        <v>157</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>107</v>
+        <v>474</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>84</v>
@@ -16657,10 +16684,10 @@
         <v>84</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>138</v>
+        <v>475</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>84</v>
@@ -16671,21 +16698,23 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="C119" s="2"/>
+        <v>640</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="D119" t="s" s="2">
-        <v>487</v>
+        <v>84</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>84</v>
@@ -16694,22 +16723,22 @@
         <v>84</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>284</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>488</v>
+        <v>641</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>489</v>
+        <v>428</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>490</v>
+        <v>642</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>491</v>
+        <v>430</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>84</v>
@@ -16734,13 +16763,11 @@
         <v>84</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y119" s="2"/>
       <c r="Z119" t="s" s="2">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>84</v>
@@ -16758,13 +16785,13 @@
         <v>84</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>84</v>
@@ -16776,27 +16803,27 @@
         <v>84</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>494</v>
+        <v>643</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>495</v>
+        <v>434</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>496</v>
+        <v>435</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>497</v>
+        <v>436</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16807,7 +16834,7 @@
         <v>82</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>84</v>
@@ -16819,19 +16846,19 @@
         <v>84</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>547</v>
+        <v>656</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>548</v>
+        <v>484</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>84</v>
@@ -16856,13 +16883,13 @@
         <v>84</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>84</v>
+        <v>345</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>84</v>
+        <v>486</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>84</v>
@@ -16880,16 +16907,16 @@
         <v>84</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>84</v>
+        <v>487</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>107</v>
@@ -16901,15 +16928,259 @@
         <v>84</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>550</v>
+        <v>138</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>551</v>
+        <v>488</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP120" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="P121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP121" t="s" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="P122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AO122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP122" t="s" s="2">
         <v>84</v>
       </c>
     </row>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-results-platelets-mean-volume.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-results-platelets-mean-volume.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4706" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4706" uniqueCount="645">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:59:06+00:00</t>
+    <t>2025-05-22T14:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -477,7 +477,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {workflow-supportingInfo}
+    <t xml:space="preserve">Extension {workflow-supportingInfo|4.0.1}
 </t>
   </si>
   <si>
@@ -485,6 +485,10 @@
   </si>
   <si>
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5</t>
@@ -501,10 +505,6 @@
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5.id</t>
@@ -735,7 +735,7 @@
     <t>value-r5</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value[x]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value%5Bx%5D}
 </t>
   </si>
   <si>
@@ -1263,7 +1263,7 @@
     <t>data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
+    <t xml:space="preserve">Extension {data-absent-reason|4.0.1}
 </t>
   </si>
   <si>
@@ -1341,7 +1341,7 @@
     <t>performerFunction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {event-performerFunction}
+    <t xml:space="preserve">Extension {event-performerFunction|4.0.1}
 </t>
   </si>
   <si>
@@ -1431,25 +1431,6 @@
 </t>
   </si>
   <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueRatio</t>
   </si>
   <si>
@@ -1460,22 +1441,6 @@
 </t>
   </si>
   <si>
-    <t>A measured ratio using UCUM</t>
-  </si>
-  <si>
-    <t>A measured ratio (or a ratio that can potentially be measured) and uncertainty of the measurement. This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueTime</t>
   </si>
   <si>
@@ -1516,30 +1481,14 @@
 </t>
   </si>
   <si>
-    <t>A measured amount using UCUM</t>
-  </si>
-  <si>
-    <t>A measured amount (or an amount that can potentially be measured) and uncertainty of the measurement. Note that measured amounts include amounts that are not precisely quantified, including amounts involving arbitrary units and floating currencies.
-This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
+</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/ips/ValueSet/results-coded-values-laboratory-uv-ips</t>
@@ -2441,15 +2390,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.3515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.72265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.8828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2460,28 +2409,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.73046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.06640625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3662,7 +3611,7 @@
         <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>146</v>
@@ -3688,13 +3637,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>84</v>
@@ -3716,13 +3665,13 @@
         <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3782,7 +3731,7 @@
         <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>146</v>
@@ -6160,7 +6109,7 @@
         <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>146</v>
@@ -6280,7 +6229,7 @@
         <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>146</v>
@@ -6400,7 +6349,7 @@
         <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>146</v>
@@ -6460,7 +6409,7 @@
         <v>231</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6520,7 +6469,7 @@
         <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>146</v>
@@ -10288,7 +10237,7 @@
         <v>82</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>84</v>
@@ -11265,19 +11214,19 @@
         <v>84</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>444</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>430</v>
@@ -11338,39 +11287,39 @@
         <v>95</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>157</v>
+        <v>432</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>448</v>
+        <v>107</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>84</v>
+        <v>433</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>84</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>425</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>84</v>
@@ -11389,19 +11338,19 @@
         <v>84</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>430</v>
@@ -11462,39 +11411,39 @@
         <v>95</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>157</v>
+        <v>432</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>457</v>
+        <v>107</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>84</v>
+        <v>433</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>138</v>
+        <v>434</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>84</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>425</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>84</v>
@@ -11516,7 +11465,7 @@
         <v>96</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>427</v>
@@ -11612,13 +11561,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>425</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>84</v>
@@ -11640,7 +11589,7 @@
         <v>96</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>427</v>
@@ -11736,13 +11685,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>425</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>84</v>
@@ -11764,7 +11713,7 @@
         <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>427</v>
@@ -11860,13 +11809,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>425</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>84</v>
@@ -11885,19 +11834,19 @@
         <v>84</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>430</v>
@@ -11958,39 +11907,39 @@
         <v>95</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>157</v>
+        <v>432</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>474</v>
+        <v>107</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>84</v>
+        <v>433</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>476</v>
+        <v>435</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>84</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>425</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>84</v>
@@ -12012,7 +11961,7 @@
         <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>284</v>
+        <v>462</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>427</v>
@@ -12053,7 +12002,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>84</v>
@@ -12106,10 +12055,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12135,16 +12084,16 @@
         <v>284</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>84</v>
@@ -12172,10 +12121,10 @@
         <v>345</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>84</v>
@@ -12193,7 +12142,7 @@
         <v>84</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
@@ -12202,7 +12151,7 @@
         <v>95</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>107</v>
@@ -12217,7 +12166,7 @@
         <v>138</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>84</v>
@@ -12228,14 +12177,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12257,16 +12206,16 @@
         <v>284</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>84</v>
@@ -12294,10 +12243,10 @@
         <v>345</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>84</v>
@@ -12315,7 +12264,7 @@
         <v>84</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
@@ -12333,27 +12282,27 @@
         <v>84</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12376,19 +12325,19 @@
         <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>84</v>
@@ -12437,7 +12386,7 @@
         <v>84</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>82</v>
@@ -12458,10 +12407,10 @@
         <v>84</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>84</v>
@@ -12472,10 +12421,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12501,13 +12450,13 @@
         <v>284</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12533,13 +12482,13 @@
         <v>84</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>84</v>
@@ -12557,7 +12506,7 @@
         <v>84</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
@@ -12575,27 +12524,27 @@
         <v>84</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12621,16 +12570,16 @@
         <v>284</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>84</v>
@@ -12640,7 +12589,7 @@
         <v>84</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>84</v>
@@ -12659,7 +12608,7 @@
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>84</v>
@@ -12677,7 +12626,7 @@
         <v>84</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>82</v>
@@ -12698,10 +12647,10 @@
         <v>84</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>84</v>
@@ -12712,10 +12661,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12738,16 +12687,16 @@
         <v>84</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12758,7 +12707,7 @@
         <v>84</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>84</v>
@@ -12797,7 +12746,7 @@
         <v>84</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>82</v>
@@ -12815,27 +12764,27 @@
         <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12858,16 +12807,16 @@
         <v>84</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12917,7 +12866,7 @@
         <v>84</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>82</v>
@@ -12935,27 +12884,27 @@
         <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>547</v>
+        <v>531</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12978,19 +12927,19 @@
         <v>84</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>84</v>
@@ -13039,7 +12988,7 @@
         <v>84</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>82</v>
@@ -13051,7 +13000,7 @@
         <v>84</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>84</v>
@@ -13060,10 +13009,10 @@
         <v>84</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>84</v>
@@ -13074,10 +13023,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13192,10 +13141,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13312,14 +13261,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13341,10 +13290,10 @@
         <v>140</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>170</v>
@@ -13399,7 +13348,7 @@
         <v>84</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
@@ -13434,10 +13383,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13460,13 +13409,13 @@
         <v>84</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13517,7 +13466,7 @@
         <v>84</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>82</v>
@@ -13526,7 +13475,7 @@
         <v>95</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>107</v>
@@ -13538,10 +13487,10 @@
         <v>84</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>84</v>
@@ -13552,10 +13501,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13578,13 +13527,13 @@
         <v>84</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13635,7 +13584,7 @@
         <v>84</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>82</v>
@@ -13644,7 +13593,7 @@
         <v>95</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>107</v>
@@ -13656,10 +13605,10 @@
         <v>84</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>84</v>
@@ -13670,10 +13619,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13699,16 +13648,16 @@
         <v>284</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>84</v>
@@ -13736,10 +13685,10 @@
         <v>119</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>84</v>
@@ -13757,7 +13706,7 @@
         <v>84</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
@@ -13775,13 +13724,13 @@
         <v>84</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>84</v>
@@ -13792,10 +13741,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13821,16 +13770,16 @@
         <v>284</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>84</v>
@@ -13855,13 +13804,13 @@
         <v>84</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>84</v>
@@ -13879,7 +13828,7 @@
         <v>84</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>82</v>
@@ -13897,13 +13846,13 @@
         <v>84</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>84</v>
@@ -13914,10 +13863,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13940,17 +13889,17 @@
         <v>84</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>84</v>
@@ -13999,7 +13948,7 @@
         <v>84</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>82</v>
@@ -14023,7 +13972,7 @@
         <v>84</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>84</v>
@@ -14034,10 +13983,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14063,10 +14012,10 @@
         <v>160</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14117,7 +14066,7 @@
         <v>84</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>82</v>
@@ -14138,10 +14087,10 @@
         <v>84</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>84</v>
@@ -14152,10 +14101,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14178,16 +14127,16 @@
         <v>96</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14237,7 +14186,7 @@
         <v>84</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>82</v>
@@ -14258,10 +14207,10 @@
         <v>84</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>84</v>
@@ -14272,10 +14221,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14298,16 +14247,16 @@
         <v>96</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14357,7 +14306,7 @@
         <v>84</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>82</v>
@@ -14378,10 +14327,10 @@
         <v>84</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>84</v>
@@ -14392,10 +14341,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14418,19 +14367,19 @@
         <v>96</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>84</v>
@@ -14479,7 +14428,7 @@
         <v>84</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>82</v>
@@ -14500,10 +14449,10 @@
         <v>84</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>84</v>
@@ -14514,10 +14463,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14632,10 +14581,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14748,10 +14697,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>229</v>
@@ -14782,7 +14731,7 @@
         <v>231</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14842,7 +14791,7 @@
         <v>83</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>146</v>
@@ -14868,10 +14817,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14986,10 +14935,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15104,10 +15053,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15224,10 +15173,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15342,14 +15291,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15371,10 +15320,10 @@
         <v>140</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>170</v>
@@ -15429,7 +15378,7 @@
         <v>84</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>82</v>
@@ -15464,10 +15413,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15493,13 +15442,13 @@
         <v>284</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>314</v>
@@ -15527,13 +15476,13 @@
         <v>84</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>84</v>
@@ -15551,7 +15500,7 @@
         <v>84</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>95</v>
@@ -15569,7 +15518,7 @@
         <v>84</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>319</v>
@@ -15586,10 +15535,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15615,13 +15564,13 @@
         <v>426</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>428</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>430</v>
@@ -15671,7 +15620,7 @@
         <v>144</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>82</v>
@@ -15689,7 +15638,7 @@
         <v>84</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>434</v>
@@ -15706,10 +15655,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>438</v>
@@ -15737,13 +15686,13 @@
         <v>160</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>428</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>430</v>
@@ -15795,7 +15744,7 @@
         <v>84</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>82</v>
@@ -15813,7 +15762,7 @@
         <v>84</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>434</v>
@@ -15830,10 +15779,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>440</v>
@@ -15861,13 +15810,13 @@
         <v>441</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>428</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>430</v>
@@ -15919,7 +15868,7 @@
         <v>84</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>82</v>
@@ -15937,7 +15886,7 @@
         <v>84</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>434</v>
@@ -15954,10 +15903,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>443</v>
@@ -15979,19 +15928,19 @@
         <v>84</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>444</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>445</v>
+        <v>625</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>447</v>
+        <v>626</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>430</v>
@@ -16043,7 +15992,7 @@
         <v>84</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>82</v>
@@ -16052,39 +16001,39 @@
         <v>95</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>448</v>
+        <v>107</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>84</v>
+        <v>627</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>84</v>
+        <v>436</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>84</v>
@@ -16103,19 +16052,19 @@
         <v>84</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>454</v>
+        <v>625</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>456</v>
+        <v>626</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>430</v>
@@ -16167,7 +16116,7 @@
         <v>84</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>82</v>
@@ -16176,39 +16125,39 @@
         <v>95</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>457</v>
+        <v>107</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>84</v>
+        <v>627</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>138</v>
+        <v>434</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>84</v>
+        <v>436</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>84</v>
@@ -16230,16 +16179,16 @@
         <v>96</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>428</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>430</v>
@@ -16291,7 +16240,7 @@
         <v>84</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>82</v>
@@ -16309,7 +16258,7 @@
         <v>84</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>434</v>
@@ -16326,13 +16275,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>84</v>
@@ -16354,16 +16303,16 @@
         <v>96</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>428</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>430</v>
@@ -16415,7 +16364,7 @@
         <v>84</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>82</v>
@@ -16433,7 +16382,7 @@
         <v>84</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>434</v>
@@ -16450,13 +16399,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>84</v>
@@ -16478,16 +16427,16 @@
         <v>96</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>428</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>430</v>
@@ -16539,7 +16488,7 @@
         <v>84</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>82</v>
@@ -16557,7 +16506,7 @@
         <v>84</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>434</v>
@@ -16574,13 +16523,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>84</v>
@@ -16599,19 +16548,19 @@
         <v>84</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>471</v>
+        <v>625</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>473</v>
+        <v>626</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>430</v>
@@ -16663,7 +16612,7 @@
         <v>84</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>82</v>
@@ -16672,39 +16621,39 @@
         <v>95</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>474</v>
+        <v>107</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>84</v>
+        <v>627</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>476</v>
+        <v>435</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>84</v>
+        <v>436</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>84</v>
@@ -16726,16 +16675,16 @@
         <v>96</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>284</v>
+        <v>462</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>428</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>430</v>
@@ -16767,7 +16716,7 @@
       </c>
       <c r="Y119" s="2"/>
       <c r="Z119" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>84</v>
@@ -16785,7 +16734,7 @@
         <v>84</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>82</v>
@@ -16803,7 +16752,7 @@
         <v>84</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>434</v>
@@ -16820,10 +16769,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16849,16 +16798,16 @@
         <v>284</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>84</v>
@@ -16886,10 +16835,10 @@
         <v>345</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>84</v>
@@ -16907,7 +16856,7 @@
         <v>84</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>82</v>
@@ -16916,7 +16865,7 @@
         <v>95</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>107</v>
@@ -16931,7 +16880,7 @@
         <v>138</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>84</v>
@@ -16942,14 +16891,14 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16971,16 +16920,16 @@
         <v>284</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>84</v>
@@ -17008,10 +16957,10 @@
         <v>345</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>84</v>
@@ -17029,7 +16978,7 @@
         <v>84</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>82</v>
@@ -17047,27 +16996,27 @@
         <v>84</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP121" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17090,19 +17039,19 @@
         <v>84</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>84</v>
@@ -17151,7 +17100,7 @@
         <v>84</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>82</v>
@@ -17172,10 +17121,10 @@
         <v>84</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>84</v>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-results-platelets-mean-volume.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-results-platelets-mean-volume.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:17:25+00:00</t>
+    <t>2025-12-16T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -386,7 +386,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -812,7 +812,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -841,7 +841,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -924,7 +924,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -1120,7 +1120,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1165,7 +1165,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1188,7 +1188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1513,7 +1513,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1545,7 +1545,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1604,7 +1604,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1688,7 +1688,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1768,7 +1768,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1818,7 +1818,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1851,7 +1851,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1910,7 +1910,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1998,7 +1998,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR 